--- a/Data/Transport Technology Characteristics.xlsx
+++ b/Data/Transport Technology Characteristics.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s124129\Documents\GitHub\NEON-Integrated-Model\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB5B3E3-2D61-4010-B235-B7E6A02575AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8259DB-2994-46BC-8E4E-14BD761C097C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9AFF1A54-1272-4A20-A3EF-CBFA1B8A79D5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9AFF1A54-1272-4A20-A3EF-CBFA1B8A79D5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Vehicle types" sheetId="1" r:id="rId1"/>
-    <sheet name="Fuel consumption per car" sheetId="2" r:id="rId2"/>
-    <sheet name="Fuel consumption total" sheetId="3" r:id="rId3"/>
+    <sheet name="Vehicle types" sheetId="4" r:id="rId1"/>
+    <sheet name="Vehicle engine types" sheetId="1" r:id="rId2"/>
+    <sheet name="Fuel consumption per car" sheetId="2" r:id="rId3"/>
+    <sheet name="Fuel consumption total" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
     <author>tc={D49C0991-3B35-413F-A0B6-DA02A28B685A}</author>
   </authors>
   <commentList>
-    <comment ref="L23" authorId="0" shapeId="0" xr:uid="{D49C0991-3B35-413F-A0B6-DA02A28B685A}">
+    <comment ref="N23" authorId="0" shapeId="0" xr:uid="{D49C0991-3B35-413F-A0B6-DA02A28B685A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -99,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="102">
   <si>
     <t>type</t>
   </si>
@@ -368,9 +369,6 @@
     <t>battery with fuel cell</t>
   </si>
   <si>
-    <t>acg tank size</t>
-  </si>
-  <si>
     <t>ev-database</t>
   </si>
   <si>
@@ -380,7 +378,34 @@
     <t>max charging power</t>
   </si>
   <si>
+    <t>share of total</t>
+  </si>
+  <si>
+    <t>Total cars</t>
+  </si>
+  <si>
+    <t>Total vans</t>
+  </si>
+  <si>
+    <t>Total trucks</t>
+  </si>
+  <si>
+    <t>Total tractor trailer</t>
+  </si>
+  <si>
+    <t>Total bus</t>
+  </si>
+  <si>
+    <t>Total other</t>
+  </si>
+  <si>
+    <t>With population of 500 per vehicle type</t>
+  </si>
+  <si>
     <t>agent population size</t>
+  </si>
+  <si>
+    <t>avg tank size</t>
   </si>
 </sst>
 </file>
@@ -390,7 +415,14 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,10 +448,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -427,9 +460,14 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -747,7 +785,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="L23" dT="2021-11-22T21:38:18.13" personId="{60BA3B98-02A0-4FDC-93CF-30D305DDC725}" id="{D49C0991-3B35-413F-A0B6-DA02A28B685A}">
+  <threadedComment ref="N23" dT="2021-11-22T21:38:18.13" personId="{60BA3B98-02A0-4FDC-93CF-30D305DDC725}" id="{D49C0991-3B35-413F-A0B6-DA02A28B685A}">
     <text>ranging from 23 kg - 70 kg</text>
   </threadedComment>
 </ThreadedComments>
@@ -771,16 +809,214 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92654273-2121-465A-9033-66783D7669E0}">
-  <dimension ref="A1:O28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE8E38EB-EB63-4413-9862-7C484D0E9545}">
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D8" s="4"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D9" s="4"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D10" s="4"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D11" s="4"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D12" s="4"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D13" s="4"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D14" s="4"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D15" s="4"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D16" s="4"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D17" s="4"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D18" s="4"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D19" s="4"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D20" s="4"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D21" s="4"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D22" s="4"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D23" s="4"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D24" s="4"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D25" s="4"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D26" s="4"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D27" s="4"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D28" s="4"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92654273-2121-465A-9033-66783D7669E0}">
+  <dimension ref="A1:W28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="6" width="8.88671875" style="5"/>
+    <col min="7" max="7" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -793,41 +1029,65 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O1" t="s">
+        <v>86</v>
+      </c>
+      <c r="P1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R1" t="s">
         <v>93</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L1" t="s">
-        <v>89</v>
-      </c>
-      <c r="M1" t="s">
-        <v>86</v>
-      </c>
-      <c r="N1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="S1" t="s">
+        <v>94</v>
+      </c>
+      <c r="T1" t="s">
+        <v>95</v>
+      </c>
+      <c r="U1" t="s">
+        <v>96</v>
+      </c>
+      <c r="V1" t="s">
+        <v>97</v>
+      </c>
+      <c r="W1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -840,23 +1100,63 @@
       <c r="D2">
         <v>7142431</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="E2" s="5">
+        <f>D2/$R$2</f>
+        <v>0.80839363474266634</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0.80839363474266634</v>
+      </c>
+      <c r="G2" s="7">
+        <v>404</v>
+      </c>
+      <c r="H2" s="4">
         <v>12588.584130267225</v>
       </c>
-      <c r="G2" s="1">
+      <c r="I2" s="1">
         <v>34.489271589773217</v>
       </c>
-      <c r="H2" s="3">
+      <c r="J2" s="3">
         <v>0.72864999999999991</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <f>SUM(D2:D7)</f>
+        <v>8835338</v>
+      </c>
+      <c r="S2">
+        <f>SUM(D8:D12)</f>
+        <v>852632</v>
+      </c>
+      <c r="T2">
+        <f>SUM(D13:D16)</f>
+        <v>62155</v>
+      </c>
+      <c r="U2">
+        <f>SUM(D17:D20)</f>
+        <v>74218</v>
+      </c>
+      <c r="V2">
+        <f>SUM(D25:D28)</f>
+        <v>9822</v>
+      </c>
+      <c r="W2">
+        <f>SUM(D21:D24)</f>
+        <v>59940</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -869,23 +1169,39 @@
       <c r="D3">
         <v>1406856</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="E3" s="5">
+        <f t="shared" ref="E3:E7" si="0">D3/$R$2</f>
+        <v>0.15923058065237572</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0.15923058065237572</v>
+      </c>
+      <c r="G3" s="7">
+        <v>80</v>
+      </c>
+      <c r="H3" s="4">
         <v>12588.584130267225</v>
       </c>
-      <c r="G3" s="1">
+      <c r="I3" s="1">
         <v>34.489271589773217</v>
       </c>
-      <c r="H3" s="3">
+      <c r="J3" s="3">
         <v>0.74840956000000003</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -898,23 +1214,39 @@
       <c r="D4">
         <v>166100</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="E4" s="5">
+        <f t="shared" si="0"/>
+        <v>1.8799507160903183E-2</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1.8799507160903183E-2</v>
+      </c>
+      <c r="G4" s="7">
+        <v>9</v>
+      </c>
+      <c r="H4" s="4">
         <v>12588.584130267225</v>
       </c>
-      <c r="G4" s="1">
+      <c r="I4" s="1">
         <v>34.489271589773217</v>
       </c>
-      <c r="H4" s="3">
+      <c r="J4" s="3">
         <v>0.81648194000000007</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -927,29 +1259,39 @@
       <c r="D5">
         <v>21136</v>
       </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="E5" s="5">
+        <f t="shared" si="0"/>
+        <v>2.392211820306139E-3</v>
+      </c>
+      <c r="F5" s="8">
+        <v>2.392211820306139E-3</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4">
         <v>12588.584130267225</v>
       </c>
-      <c r="G5" s="1">
+      <c r="I5" s="1">
         <v>34.489271589773217</v>
       </c>
-      <c r="H5" s="3">
+      <c r="J5" s="3">
         <v>0.1628</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>80</v>
       </c>
-      <c r="M5">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
         <v>58</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -962,23 +1304,39 @@
       <c r="D6">
         <v>42</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="E6" s="5">
+        <f t="shared" si="0"/>
+        <v>4.7536381743403593E-6</v>
+      </c>
+      <c r="F6" s="8">
+        <v>4.7536381743403593E-6</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
         <v>12588.584130267225</v>
       </c>
-      <c r="G6" s="1">
+      <c r="I6" s="1">
         <v>34.489271589773217</v>
       </c>
-      <c r="H6" s="3">
+      <c r="J6" s="3">
         <v>0.48666666666666669</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -991,23 +1349,39 @@
       <c r="D7">
         <v>98773</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4">
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>1.1179311985574293E-2</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1.1179311985574293E-2</v>
+      </c>
+      <c r="G7" s="7">
+        <v>6</v>
+      </c>
+      <c r="H7" s="4">
         <v>12588.584130267225</v>
       </c>
-      <c r="G7" s="1">
+      <c r="I7" s="1">
         <v>34.489271589773217</v>
       </c>
-      <c r="H7" s="3">
+      <c r="J7" s="3">
         <v>0.43795000000000001</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1020,23 +1394,39 @@
       <c r="D8">
         <v>26134</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4">
+      <c r="E8" s="5">
+        <f>D8/$S$2</f>
+        <v>3.0650972518038264E-2</v>
+      </c>
+      <c r="F8" s="8">
+        <v>3.0650972518038264E-2</v>
+      </c>
+      <c r="G8" s="7">
+        <v>15</v>
+      </c>
+      <c r="H8" s="4">
         <v>19831.181564848612</v>
       </c>
-      <c r="G8" s="1">
+      <c r="I8" s="1">
         <v>54.332004287256467</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1.11435</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1049,23 +1439,39 @@
       <c r="D9">
         <v>806254</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4">
+      <c r="E9" s="5">
+        <f t="shared" ref="E9:E12" si="1">D9/$S$2</f>
+        <v>0.94560607624391302</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0.94560607624391302</v>
+      </c>
+      <c r="G9" s="7">
+        <v>473</v>
+      </c>
+      <c r="H9" s="4">
         <v>19831.181564848612</v>
       </c>
-      <c r="G9" s="1">
+      <c r="I9" s="1">
         <v>54.332004287256467</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1.8785294400000001</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1078,32 +1484,42 @@
       <c r="D10">
         <v>1519</v>
       </c>
-      <c r="E10">
-        <v>100</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="E10" s="5">
+        <f t="shared" si="1"/>
+        <v>1.781542330102553E-3</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1.781542330102553E-3</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4">
         <v>19831.181564848612</v>
       </c>
-      <c r="G10" s="1">
+      <c r="I10" s="1">
         <v>54.332004287256467</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>0.23</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
+        <v>89</v>
+      </c>
+      <c r="M10" t="s">
         <v>90</v>
       </c>
-      <c r="K10" t="s">
-        <v>91</v>
-      </c>
-      <c r="M10">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
         <v>65</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1116,26 +1532,42 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4">
+      <c r="E11" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
         <v>19831.181564848612</v>
       </c>
-      <c r="G11" s="1">
+      <c r="I11" s="1">
         <v>54.332004287256467</v>
       </c>
-      <c r="H11" s="3">
+      <c r="J11" s="3">
         <v>1.2774364</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>77</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1148,26 +1580,42 @@
       <c r="D12">
         <v>18725</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4">
+      <c r="E12" s="5">
+        <f t="shared" si="1"/>
+        <v>2.196140890794622E-2</v>
+      </c>
+      <c r="F12" s="8">
+        <v>2.196140890794622E-2</v>
+      </c>
+      <c r="G12" s="7">
+        <v>11</v>
+      </c>
+      <c r="H12" s="4">
         <v>19831.181564848612</v>
       </c>
-      <c r="G12" s="1">
+      <c r="I12" s="1">
         <v>54.332004287256467</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>1.2774364</v>
       </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>77</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1180,20 +1628,36 @@
       <c r="D13">
         <v>60660</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4">
+      <c r="E13" s="5">
+        <f>D13/$T$2</f>
+        <v>0.97594722870243744</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0.97594722870243744</v>
+      </c>
+      <c r="G13" s="7">
+        <v>488</v>
+      </c>
+      <c r="H13" s="4">
         <v>33998.873783283721</v>
       </c>
-      <c r="G13" s="1">
+      <c r="I13" s="1">
         <v>93.147599406256774</v>
       </c>
-      <c r="H13" s="3">
+      <c r="J13" s="3">
         <v>3.5383260000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1206,32 +1670,42 @@
       <c r="D14">
         <v>104</v>
       </c>
-      <c r="E14">
-        <v>100</v>
-      </c>
-      <c r="F14" s="4">
+      <c r="E14" s="5">
+        <f t="shared" ref="E14:E16" si="2">D14/$T$2</f>
+        <v>1.6732362641782639E-3</v>
+      </c>
+      <c r="F14" s="8">
+        <v>1.6732362641782639E-3</v>
+      </c>
+      <c r="G14" s="7">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4">
         <v>33998.873783283721</v>
       </c>
-      <c r="G14" s="1">
+      <c r="I14" s="1">
         <v>93.147599406256774</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>1.44</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
         <v>75</v>
       </c>
-      <c r="K14" t="s">
+      <c r="M14" t="s">
         <v>76</v>
       </c>
-      <c r="M14">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
         <v>850</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1244,29 +1718,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15" s="4">
+      <c r="E15" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
         <v>33998.873783283721</v>
       </c>
-      <c r="G15" s="1">
+      <c r="I15" s="1">
         <v>93.147599406256774</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>2.5299999999999998</v>
       </c>
-      <c r="J15" t="s">
+      <c r="L15" t="s">
         <v>75</v>
       </c>
-      <c r="K15" t="s">
+      <c r="M15" t="s">
         <v>76</v>
       </c>
-      <c r="M15">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
         <v>70</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1279,23 +1766,39 @@
       <c r="D16">
         <v>1391</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16" s="4">
+      <c r="E16" s="5">
+        <f t="shared" si="2"/>
+        <v>2.237953503338428E-2</v>
+      </c>
+      <c r="F16" s="8">
+        <v>2.237953503338428E-2</v>
+      </c>
+      <c r="G16" s="7">
+        <v>11</v>
+      </c>
+      <c r="H16" s="4">
         <v>33998.873783283721</v>
       </c>
-      <c r="G16" s="1">
+      <c r="I16" s="1">
         <v>93.147599406256774</v>
       </c>
-      <c r="H16" s="3">
+      <c r="J16" s="3">
         <v>3.54</v>
       </c>
-      <c r="I16" t="s">
+      <c r="K16" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1308,23 +1811,39 @@
       <c r="D17">
         <v>73794</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17" s="4">
+      <c r="E17" s="5">
+        <f>D17/$U$2</f>
+        <v>0.9942871001643806</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0.9942871001643806</v>
+      </c>
+      <c r="G17" s="7">
+        <v>497</v>
+      </c>
+      <c r="H17" s="4">
         <v>60029.911881214801</v>
       </c>
-      <c r="G17" s="1">
+      <c r="I17" s="1">
         <v>164.46551200332823</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>3.5383260000000001</v>
       </c>
-      <c r="I17" t="s">
+      <c r="K17" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1337,29 +1856,39 @@
       <c r="D18">
         <v>8</v>
       </c>
-      <c r="E18">
-        <v>100</v>
-      </c>
-      <c r="F18" s="4">
+      <c r="E18" s="5">
+        <f t="shared" ref="E18:E20" si="3">D18/$U$2</f>
+        <v>1.0779056293621493E-4</v>
+      </c>
+      <c r="F18" s="8">
+        <v>1.0779056293621493E-4</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
         <v>60029.911881214801</v>
       </c>
-      <c r="G18" s="1">
+      <c r="I18" s="1">
         <v>164.46551200332823</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>1.44</v>
       </c>
-      <c r="I18" t="s">
+      <c r="K18" t="s">
         <v>81</v>
       </c>
-      <c r="M18">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
         <v>850</v>
       </c>
-      <c r="N18">
+      <c r="P18">
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1372,26 +1901,39 @@
       <c r="D19">
         <v>0</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19" s="4">
+      <c r="E19" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
         <v>60029.911881214801</v>
       </c>
-      <c r="G19" s="1">
+      <c r="I19" s="1">
         <v>164.46551200332823</v>
       </c>
-      <c r="H19" s="3">
+      <c r="J19" s="3">
         <v>2.5299999999999998</v>
       </c>
-      <c r="I19" t="s">
+      <c r="K19" t="s">
         <v>81</v>
       </c>
-      <c r="M19">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
         <v>70</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1404,23 +1946,39 @@
       <c r="D20">
         <v>416</v>
       </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20" s="4">
+      <c r="E20" s="5">
+        <f t="shared" si="3"/>
+        <v>5.6051092726831769E-3</v>
+      </c>
+      <c r="F20" s="8">
+        <v>5.6051092726831769E-3</v>
+      </c>
+      <c r="G20" s="7">
+        <v>3</v>
+      </c>
+      <c r="H20" s="4">
         <v>60029.911881214801</v>
       </c>
-      <c r="G20" s="1">
+      <c r="I20" s="1">
         <v>164.46551200332823</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>2.5299999999999998</v>
       </c>
-      <c r="I20" t="s">
+      <c r="K20" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1433,23 +1991,39 @@
       <c r="D21">
         <v>55449</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21" s="4">
+      <c r="E21" s="5">
+        <f>D21/$W$2</f>
+        <v>0.92507507507507503</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0.92507507507507503</v>
+      </c>
+      <c r="G21" s="7">
+        <v>463</v>
+      </c>
+      <c r="H21" s="4">
         <v>6503.1698365031698</v>
       </c>
-      <c r="G21" s="1">
+      <c r="I21" s="1">
         <v>17.816903661652521</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>3.5383260000000001</v>
       </c>
-      <c r="I21" t="s">
+      <c r="K21" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -1462,32 +2036,42 @@
       <c r="D22">
         <v>10</v>
       </c>
-      <c r="E22">
-        <v>100</v>
-      </c>
-      <c r="F22" s="4">
+      <c r="E22" s="5">
+        <f t="shared" ref="E22:E24" si="4">D22/$W$2</f>
+        <v>1.6683350016683351E-4</v>
+      </c>
+      <c r="F22" s="8">
+        <v>1.6683350016683351E-4</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
         <v>6503.1698365031698</v>
       </c>
-      <c r="G22" s="1">
+      <c r="I22" s="1">
         <v>17.816903661652521</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>1.44</v>
       </c>
-      <c r="I22" t="s">
+      <c r="K22" t="s">
         <v>81</v>
       </c>
-      <c r="M22">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
         <v>850</v>
       </c>
-      <c r="N22">
+      <c r="P22">
         <v>150</v>
       </c>
-      <c r="O22" t="s">
+      <c r="Q22" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -1500,32 +2084,42 @@
       <c r="D23">
         <v>0</v>
       </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23" s="4">
+      <c r="E23" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="8">
+        <v>0</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
         <v>6503.1698365031698</v>
       </c>
-      <c r="G23" s="1">
+      <c r="I23" s="1">
         <v>17.816903661652521</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>2.5299999999999998</v>
       </c>
-      <c r="I23" t="s">
+      <c r="K23" t="s">
         <v>81</v>
       </c>
-      <c r="L23">
+      <c r="N23">
         <v>70</v>
       </c>
-      <c r="M23">
+      <c r="O23">
         <v>70</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -1538,23 +2132,39 @@
       <c r="D24">
         <v>4481</v>
       </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24" s="4">
+      <c r="E24" s="5">
+        <f t="shared" si="4"/>
+        <v>7.4758091424758089E-2</v>
+      </c>
+      <c r="F24" s="8">
+        <v>7.4758091424758089E-2</v>
+      </c>
+      <c r="G24" s="7">
+        <v>37</v>
+      </c>
+      <c r="H24" s="4">
         <v>6503.1698365031698</v>
       </c>
-      <c r="G24" s="1">
+      <c r="I24" s="1">
         <v>17.816903661652521</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>2.5299999999999998</v>
       </c>
-      <c r="I24" t="s">
+      <c r="K24" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -1567,23 +2177,39 @@
       <c r="D25">
         <v>8945</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25" s="4">
+      <c r="E25" s="5">
+        <f>D25/$V$2</f>
+        <v>0.91071064956220726</v>
+      </c>
+      <c r="F25" s="8">
+        <v>0.91071064956220726</v>
+      </c>
+      <c r="G25" s="7">
+        <v>455</v>
+      </c>
+      <c r="H25" s="4">
         <v>66636.122989207899</v>
       </c>
-      <c r="G25" s="1">
+      <c r="I25" s="1">
         <v>182.56472051837781</v>
       </c>
-      <c r="H25" s="3">
+      <c r="J25" s="3">
         <v>3.5383260000000001</v>
       </c>
-      <c r="I25" t="s">
+      <c r="K25" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -1596,29 +2222,39 @@
       <c r="D26">
         <v>191</v>
       </c>
-      <c r="E26">
-        <v>100</v>
-      </c>
-      <c r="F26" s="4">
+      <c r="E26" s="5">
+        <f t="shared" ref="E26:E28" si="5">D26/$V$2</f>
+        <v>1.9446141315414375E-2</v>
+      </c>
+      <c r="F26" s="8">
+        <v>1.9446141315414375E-2</v>
+      </c>
+      <c r="G26" s="7">
+        <v>10</v>
+      </c>
+      <c r="H26" s="4">
         <v>66636.122989207899</v>
       </c>
-      <c r="G26" s="1">
+      <c r="I26" s="1">
         <v>182.56472051837781</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>1.44</v>
       </c>
-      <c r="I26" t="s">
+      <c r="K26" t="s">
         <v>81</v>
       </c>
-      <c r="M26">
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
         <v>850</v>
       </c>
-      <c r="N26">
+      <c r="P26">
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -1631,26 +2267,39 @@
       <c r="D27">
         <v>0</v>
       </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27" s="4">
+      <c r="E27" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="8">
+        <v>0</v>
+      </c>
+      <c r="G27" s="7">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4">
         <v>66636.122989207899</v>
       </c>
-      <c r="G27" s="1">
+      <c r="I27" s="1">
         <v>182.56472051837781</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>2.5299999999999998</v>
       </c>
-      <c r="I27" t="s">
+      <c r="K27" t="s">
         <v>81</v>
       </c>
-      <c r="M27">
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
         <v>70</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -1663,20 +2312,36 @@
       <c r="D28">
         <v>686</v>
       </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28" s="4">
+      <c r="E28" s="5">
+        <f t="shared" si="5"/>
+        <v>6.9843209122378333E-2</v>
+      </c>
+      <c r="F28" s="8">
+        <v>6.9843209122378333E-2</v>
+      </c>
+      <c r="G28" s="7">
+        <v>35</v>
+      </c>
+      <c r="H28" s="4">
         <v>66636.122989207899</v>
       </c>
-      <c r="G28" s="1">
+      <c r="I28" s="1">
         <v>182.56472051837781</v>
       </c>
-      <c r="H28" s="3">
+      <c r="J28" s="3">
         <v>2.5299999999999998</v>
       </c>
-      <c r="I28" t="s">
+      <c r="K28" t="s">
         <v>81</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1686,7 +2351,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31BA55C2-B21C-41D5-8BCA-C0ADE7253BDB}">
   <dimension ref="A1:K51"/>
   <sheetViews>
@@ -2814,7 +3479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33B3943E-F18E-4409-949F-E2D75C9354B9}">
   <dimension ref="A1:D15"/>
   <sheetViews>

--- a/Data/Transport Technology Characteristics.xlsx
+++ b/Data/Transport Technology Characteristics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s124129\Documents\GitHub\NEON-Integrated-Model\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8259DB-2994-46BC-8E4E-14BD761C097C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C410697D-50CB-4F43-B790-5F278F529E96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9AFF1A54-1272-4A20-A3EF-CBFA1B8A79D5}"/>
   </bookViews>
@@ -1006,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92654273-2121-465A-9033-66783D7669E0}">
   <dimension ref="A1:W28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1101,7 +1101,7 @@
         <v>7142431</v>
       </c>
       <c r="E2" s="5">
-        <f>D2/$R$2</f>
+        <f t="shared" ref="E2:E7" si="0">D2/$R$2</f>
         <v>0.80839363474266634</v>
       </c>
       <c r="F2" s="8">
@@ -1170,7 +1170,7 @@
         <v>1406856</v>
       </c>
       <c r="E3" s="5">
-        <f t="shared" ref="E3:E7" si="0">D3/$R$2</f>
+        <f t="shared" si="0"/>
         <v>0.15923058065237572</v>
       </c>
       <c r="F3" s="8">
@@ -1254,7 +1254,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>21136</v>
@@ -1299,7 +1299,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>42</v>
@@ -1344,7 +1344,7 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D7">
         <v>98773</v>
